--- a/лаба 8 Стратегия тестирования/Стратегия тестирования - Леснинова, Ли, Павлова.xlsx
+++ b/лаба 8 Стратегия тестирования/Стратегия тестирования - Леснинова, Ли, Павлова.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5865" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5865" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-план" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="136">
   <si>
     <t>Тест-кейсы</t>
   </si>
@@ -453,6 +453,12 @@
   </si>
   <si>
     <t>Система рекомендуется для установки и прошла прошла все тест кейсы</t>
+  </si>
+  <si>
+    <t>Павлова</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Леснинова</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1418,7 @@
     <col min="6" max="6" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="12.75">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1429,7 +1435,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="12.75">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1465,7 +1471,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" ht="12.75">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1501,7 +1507,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="15">
       <c r="A6" s="1"/>
       <c r="B6" s="34" t="s">
         <v>6</v>
@@ -1520,7 +1526,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="15">
       <c r="A7" s="1"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1556,7 +1562,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" ht="15">
       <c r="A9" s="1"/>
       <c r="B9" s="34" t="s">
         <v>41</v>
@@ -1575,7 +1581,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="12.75">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1831,7 +1837,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" ht="12.75">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1848,7 +1854,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" ht="12.75">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1865,7 +1871,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" ht="12.75">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1882,7 +1888,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" ht="12.75">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1899,7 +1905,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" ht="12.75">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1916,7 +1922,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" ht="12.75">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1933,7 +1939,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" ht="12.75">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1950,7 +1956,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" ht="12.75">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1967,7 +1973,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" ht="12.75">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2820,7 +2826,7 @@
   </sheetPr>
   <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
@@ -4495,7 +4501,9 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -4582,7 +4590,7 @@
         <v>110</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75">
@@ -4627,7 +4635,9 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -4714,7 +4724,7 @@
         <v>110</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75">
